--- a/va_facility_data_2025-02-20/Plentywood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Plentywood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Plentywood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Plentywood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R658df89c50b345b7ada3bc063f14a42b"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R958357d52caf4233bcf9fd93f72e4d7c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7cb1eef87ce441a897b91b60902ed48b"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R07b87321f74d40c9a320173221f8e33d"/>
   </x:sheets>
 </x:workbook>
 </file>
